--- a/Nextion/PoolMaster_Nextion_V5.0/SplashAccelerationCurve.xlsx
+++ b/Nextion/PoolMaster_Nextion_V5.0/SplashAccelerationCurve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HorsOneDrive\VSCode_ESP32PoolMaster\ESP32-PoolMaster\Nextion\PoolMaster_Nextion_V5.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A90059DB-566D-40DC-B86D-0230D116120A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A24E178-D139-4269-8E0E-0C3FBF6ABDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9924" yWindow="1752" windowWidth="24072" windowHeight="19692" xr2:uid="{9BC28718-1901-4238-9848-37BD07B31F98}"/>
+    <workbookView xWindow="29220" yWindow="3312" windowWidth="30888" windowHeight="20052" xr2:uid="{9BC28718-1901-4238-9848-37BD07B31F98}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>0|0|0|0|0|0|0|0|0|1|6|11|15|19|22|25|28|30|32|33|32|30|28|25|22|19|15|11|6|1</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,13 +410,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B87D0DB-0EE1-43A2-9D73-0E879FD7F2EB}">
-  <dimension ref="B4:E40"/>
+  <dimension ref="B4:K131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41:E78"/>
+    <sheetView tabSelected="1" topLeftCell="A72" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E122" sqref="E122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="64" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B4">
@@ -466,7 +477,7 @@
         <v>10</v>
       </c>
       <c r="E7" t="str">
-        <f t="shared" ref="E7:E70" si="1">E6&amp;"|"&amp;D7</f>
+        <f t="shared" ref="E7:E40" si="1">E6&amp;"|"&amp;D7</f>
         <v>4|6|8|10</v>
       </c>
     </row>
@@ -870,7 +881,7 @@
         <v>4|6|8|10|12|14|16|18|20|22|24|26|28|30|32|34|36|38|40|38|36|34|32|30|28|26|24|22|20</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33">
         <v>350</v>
       </c>
@@ -886,7 +897,7 @@
         <v>4|6|8|10|12|14|16|18|20|22|24|26|28|30|32|34|36|38|40|38|36|34|32|30|28|26|24|22|20|18</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B34">
         <v>360</v>
       </c>
@@ -902,7 +913,7 @@
         <v>4|6|8|10|12|14|16|18|20|22|24|26|28|30|32|34|36|38|40|38|36|34|32|30|28|26|24|22|20|18|16</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B35">
         <v>370</v>
       </c>
@@ -918,7 +929,7 @@
         <v>4|6|8|10|12|14|16|18|20|22|24|26|28|30|32|34|36|38|40|38|36|34|32|30|28|26|24|22|20|18|16|14</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B36">
         <v>380</v>
       </c>
@@ -934,7 +945,7 @@
         <v>4|6|8|10|12|14|16|18|20|22|24|26|28|30|32|34|36|38|40|38|36|34|32|30|28|26|24|22|20|18|16|14|12</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37">
         <v>390</v>
       </c>
@@ -950,7 +961,7 @@
         <v>4|6|8|10|12|14|16|18|20|22|24|26|28|30|32|34|36|38|40|38|36|34|32|30|28|26|24|22|20|18|16|14|12|10</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B38">
         <v>400</v>
       </c>
@@ -966,7 +977,7 @@
         <v>4|6|8|10|12|14|16|18|20|22|24|26|28|30|32|34|36|38|40|38|36|34|32|30|28|26|24|22|20|18|16|14|12|10|8</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B39">
         <v>410</v>
       </c>
@@ -982,7 +993,7 @@
         <v>4|6|8|10|12|14|16|18|20|22|24|26|28|30|32|34|36|38|40|38|36|34|32|30|28|26|24|22|20|18|16|14|12|10|8|6</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40">
         <v>420</v>
       </c>
@@ -998,7 +1009,1328 @@
         <v>4|6|8|10|12|14|16|18|20|22|24|26|28|30|32|34|36|38|40|38|36|34|32|30|28|26|24|22|20|18|16|14|12|10|8|6|4</v>
       </c>
     </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B45">
+        <v>270</v>
+      </c>
+      <c r="C45">
+        <v>6</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="str">
+        <f>D45&amp;"|"&amp;E44</f>
+        <v>1|</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>270</v>
+      </c>
+      <c r="K45" t="str">
+        <f>J45&amp;"|"&amp;K44</f>
+        <v>270|</v>
+      </c>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B46">
+        <v>271</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46">
+        <f>D45+C46</f>
+        <v>6</v>
+      </c>
+      <c r="E46" t="str">
+        <f>D46&amp;"|"&amp;E45</f>
+        <v>6|1|</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <f>J45+C45</f>
+        <v>276</v>
+      </c>
+      <c r="K46" t="str">
+        <f>J46&amp;"|"&amp;K45</f>
+        <v>276|270|</v>
+      </c>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B47">
+        <v>272</v>
+      </c>
+      <c r="C47">
+        <v>5</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D86" si="2">D46+C47</f>
+        <v>11</v>
+      </c>
+      <c r="E47" t="str">
+        <f>D47&amp;"|"&amp;E46</f>
+        <v>11|6|1|</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <f t="shared" ref="J47:J65" si="3">J46+C46</f>
+        <v>281</v>
+      </c>
+      <c r="K47" t="str">
+        <f>J47&amp;"|"&amp;K46</f>
+        <v>281|276|270|</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B48">
+        <v>273</v>
+      </c>
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="E48" t="str">
+        <f>D48&amp;"|"&amp;E47</f>
+        <v>15|11|6|1|</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="3"/>
+        <v>286</v>
+      </c>
+      <c r="K48" t="str">
+        <f>J48&amp;"|"&amp;K47</f>
+        <v>286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B49">
+        <v>274</v>
+      </c>
+      <c r="C49">
+        <v>4</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="2"/>
+        <v>19</v>
+      </c>
+      <c r="E49" t="str">
+        <f>D49&amp;"|"&amp;E48</f>
+        <v>19|15|11|6|1|</v>
+      </c>
+      <c r="I49">
+        <v>4</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="3"/>
+        <v>290</v>
+      </c>
+      <c r="K49" t="str">
+        <f>J49&amp;"|"&amp;K48</f>
+        <v>290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B50">
+        <v>275</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="E50" t="str">
+        <f>D50&amp;"|"&amp;E49</f>
+        <v>22|19|15|11|6|1|</v>
+      </c>
+      <c r="I50">
+        <v>5</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="3"/>
+        <v>294</v>
+      </c>
+      <c r="K50" t="str">
+        <f>J50&amp;"|"&amp;K49</f>
+        <v>294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B51">
+        <v>276</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="E51" t="str">
+        <f>D51&amp;"|"&amp;E50</f>
+        <v>25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I51">
+        <v>6</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="3"/>
+        <v>297</v>
+      </c>
+      <c r="K51" t="str">
+        <f>J51&amp;"|"&amp;K50</f>
+        <v>297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B52">
+        <v>277</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="E52" t="str">
+        <f>D52&amp;"|"&amp;E51</f>
+        <v>28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I52">
+        <v>7</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="3"/>
+        <v>300</v>
+      </c>
+      <c r="K52" t="str">
+        <f>J52&amp;"|"&amp;K51</f>
+        <v>300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B53">
+        <v>278</v>
+      </c>
+      <c r="C53">
+        <v>2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="E53" t="str">
+        <f>D53&amp;"|"&amp;E52</f>
+        <v>30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I53">
+        <v>8</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="3"/>
+        <v>303</v>
+      </c>
+      <c r="K53" t="str">
+        <f>J53&amp;"|"&amp;K52</f>
+        <v>303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B54">
+        <v>279</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="E54" t="str">
+        <f>D54&amp;"|"&amp;E53</f>
+        <v>32|30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I54">
+        <v>9</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="3"/>
+        <v>305</v>
+      </c>
+      <c r="K54" t="str">
+        <f>J54&amp;"|"&amp;K53</f>
+        <v>305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B55">
+        <v>280</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="2"/>
+        <v>33</v>
+      </c>
+      <c r="E55" t="str">
+        <f>D55&amp;"|"&amp;E54</f>
+        <v>33|32|30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I55">
+        <v>10</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="3"/>
+        <v>307</v>
+      </c>
+      <c r="K55" t="str">
+        <f>J55&amp;"|"&amp;K54</f>
+        <v>307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B56">
+        <v>281</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>32</v>
+      </c>
+      <c r="E56" t="str">
+        <f>D56&amp;"|"&amp;E55</f>
+        <v>32|33|32|30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I56">
+        <v>11</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="K56" t="str">
+        <f>J56&amp;"|"&amp;K55</f>
+        <v>308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B57">
+        <v>282</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57">
+        <v>30</v>
+      </c>
+      <c r="E57" t="str">
+        <f>D57&amp;"|"&amp;E56</f>
+        <v>30|32|33|32|30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I57">
+        <v>12</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="3"/>
+        <v>310</v>
+      </c>
+      <c r="K57" t="str">
+        <f>J57&amp;"|"&amp;K56</f>
+        <v>310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B58">
+        <v>283</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58">
+        <v>28</v>
+      </c>
+      <c r="E58" t="str">
+        <f>D58&amp;"|"&amp;E57</f>
+        <v>28|30|32|33|32|30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I58">
+        <v>13</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="3"/>
+        <v>312</v>
+      </c>
+      <c r="K58" t="str">
+        <f>J58&amp;"|"&amp;K57</f>
+        <v>312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B59">
+        <v>284</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>25</v>
+      </c>
+      <c r="E59" t="str">
+        <f>D59&amp;"|"&amp;E58</f>
+        <v>25|28|30|32|33|32|30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I59">
+        <v>14</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="K59" t="str">
+        <f>J59&amp;"|"&amp;K58</f>
+        <v>315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B60">
+        <v>285</v>
+      </c>
+      <c r="C60">
+        <v>3</v>
+      </c>
+      <c r="D60">
+        <v>22</v>
+      </c>
+      <c r="E60" t="str">
+        <f>D60&amp;"|"&amp;E59</f>
+        <v>22|25|28|30|32|33|32|30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I60">
+        <v>15</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="3"/>
+        <v>318</v>
+      </c>
+      <c r="K60" t="str">
+        <f>J60&amp;"|"&amp;K59</f>
+        <v>318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B61">
+        <v>286</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>19</v>
+      </c>
+      <c r="E61" t="str">
+        <f>D61&amp;"|"&amp;E60</f>
+        <v>19|22|25|28|30|32|33|32|30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I61">
+        <v>16</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="3"/>
+        <v>321</v>
+      </c>
+      <c r="K61" t="str">
+        <f>J61&amp;"|"&amp;K60</f>
+        <v>321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B62">
+        <v>287</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>15</v>
+      </c>
+      <c r="E62" t="str">
+        <f>D62&amp;"|"&amp;E61</f>
+        <v>15|19|22|25|28|30|32|33|32|30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I62">
+        <v>17</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="3"/>
+        <v>325</v>
+      </c>
+      <c r="K62" t="str">
+        <f>J62&amp;"|"&amp;K61</f>
+        <v>325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B63">
+        <v>288</v>
+      </c>
+      <c r="C63">
+        <v>5</v>
+      </c>
+      <c r="D63">
+        <v>11</v>
+      </c>
+      <c r="E63" t="str">
+        <f>D63&amp;"|"&amp;E62</f>
+        <v>11|15|19|22|25|28|30|32|33|32|30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I63">
+        <v>18</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="3"/>
+        <v>329</v>
+      </c>
+      <c r="K63" t="str">
+        <f>J63&amp;"|"&amp;K62</f>
+        <v>329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B64">
+        <v>289</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>6</v>
+      </c>
+      <c r="E64" t="str">
+        <f>D64&amp;"|"&amp;E63</f>
+        <v>6|11|15|19|22|25|28|30|32|33|32|30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I64">
+        <v>19</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>334</v>
+      </c>
+      <c r="K64" t="str">
+        <f>J64&amp;"|"&amp;K63</f>
+        <v>334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B65">
+        <v>290</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="str">
+        <f>D65&amp;"|"&amp;E64</f>
+        <v>1|6|11|15|19|22|25|28|30|32|33|32|30|28|25|22|19|15|11|6|1|</v>
+      </c>
+      <c r="I65">
+        <v>20</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="3"/>
+        <v>339</v>
+      </c>
+      <c r="K65" t="str">
+        <f>J65&amp;"|"&amp;K64</f>
+        <v>339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D66">
+        <v>74</v>
+      </c>
+      <c r="E66">
+        <f>LEN(E65)</f>
+        <v>59</v>
+      </c>
+      <c r="I66">
+        <v>21</v>
+      </c>
+      <c r="J66">
+        <v>325</v>
+      </c>
+      <c r="K66" t="str">
+        <f t="shared" ref="K66:K85" si="4">J66&amp;"|"&amp;K65</f>
+        <v>325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D67">
+        <f>D66-C67</f>
+        <v>74</v>
+      </c>
+      <c r="E67">
+        <f>LEN(E66)</f>
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>22</v>
+      </c>
+      <c r="J67">
+        <v>324</v>
+      </c>
+      <c r="K67" t="str">
+        <f t="shared" si="4"/>
+        <v>324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D68">
+        <f t="shared" ref="D68:D86" si="5">D67-C68</f>
+        <v>74</v>
+      </c>
+      <c r="E68" t="str">
+        <f t="shared" ref="E66:E86" si="6">D68&amp;"|"&amp;E67</f>
+        <v>74|2</v>
+      </c>
+      <c r="I68">
+        <v>23</v>
+      </c>
+      <c r="J68">
+        <v>323</v>
+      </c>
+      <c r="K68" t="str">
+        <f t="shared" si="4"/>
+        <v>323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D69">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E69" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|2</v>
+      </c>
+      <c r="I69">
+        <v>24</v>
+      </c>
+      <c r="J69">
+        <v>322</v>
+      </c>
+      <c r="K69" t="str">
+        <f t="shared" si="4"/>
+        <v>322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D70">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E70" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|2</v>
+      </c>
+      <c r="I70">
+        <v>25</v>
+      </c>
+      <c r="J70">
+        <v>321</v>
+      </c>
+      <c r="K70" t="str">
+        <f t="shared" si="4"/>
+        <v>321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D71">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E71" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|2</v>
+      </c>
+      <c r="I71">
+        <v>26</v>
+      </c>
+      <c r="J71">
+        <v>320</v>
+      </c>
+      <c r="K71" t="str">
+        <f t="shared" si="4"/>
+        <v>320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D72">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E72" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|2</v>
+      </c>
+      <c r="I72">
+        <v>27</v>
+      </c>
+      <c r="J72">
+        <v>318</v>
+      </c>
+      <c r="K72" t="str">
+        <f t="shared" si="4"/>
+        <v>318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D73">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E73" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I73">
+        <v>28</v>
+      </c>
+      <c r="J73">
+        <v>316</v>
+      </c>
+      <c r="K73" t="str">
+        <f t="shared" si="4"/>
+        <v>316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D74">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E74" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I74">
+        <v>29</v>
+      </c>
+      <c r="J74">
+        <v>314</v>
+      </c>
+      <c r="K74" t="str">
+        <f t="shared" si="4"/>
+        <v>314|316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D75">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E75" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I75">
+        <v>30</v>
+      </c>
+      <c r="J75">
+        <v>311</v>
+      </c>
+      <c r="K75" t="str">
+        <f t="shared" si="4"/>
+        <v>311|314|316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D76">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E76" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I76">
+        <v>31</v>
+      </c>
+      <c r="J76">
+        <v>308</v>
+      </c>
+      <c r="K76" t="str">
+        <f t="shared" si="4"/>
+        <v>308|311|314|316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D77">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E77" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I77">
+        <v>32</v>
+      </c>
+      <c r="J77">
+        <v>305</v>
+      </c>
+      <c r="K77" t="str">
+        <f t="shared" si="4"/>
+        <v>305|308|311|314|316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D78">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E78" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I78">
+        <v>33</v>
+      </c>
+      <c r="J78">
+        <v>301</v>
+      </c>
+      <c r="K78" t="str">
+        <f t="shared" si="4"/>
+        <v>301|305|308|311|314|316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D79">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E79" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I79">
+        <v>34</v>
+      </c>
+      <c r="J79">
+        <v>297</v>
+      </c>
+      <c r="K79" t="str">
+        <f t="shared" si="4"/>
+        <v>297|301|305|308|311|314|316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="D80">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E80" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I80">
+        <v>35</v>
+      </c>
+      <c r="J80">
+        <v>293</v>
+      </c>
+      <c r="K80" t="str">
+        <f t="shared" si="4"/>
+        <v>293|297|301|305|308|311|314|316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D81">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E81" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I81">
+        <v>36</v>
+      </c>
+      <c r="J81">
+        <v>289</v>
+      </c>
+      <c r="K81" t="str">
+        <f t="shared" si="4"/>
+        <v>289|293|297|301|305|308|311|314|316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D82">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E82" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I82">
+        <v>37</v>
+      </c>
+      <c r="J82">
+        <v>285</v>
+      </c>
+      <c r="K82" t="str">
+        <f t="shared" si="4"/>
+        <v>285|289|293|297|301|305|308|311|314|316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D83">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E83" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I83">
+        <v>38</v>
+      </c>
+      <c r="J83">
+        <v>280</v>
+      </c>
+      <c r="K83" t="str">
+        <f t="shared" si="4"/>
+        <v>280|285|289|293|297|301|305|308|311|314|316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D84">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E84" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I84">
+        <v>39</v>
+      </c>
+      <c r="J84">
+        <v>275</v>
+      </c>
+      <c r="K84" t="str">
+        <f t="shared" si="4"/>
+        <v>275|280|285|289|293|297|301|305|308|311|314|316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D85">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E85" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="I85">
+        <v>40</v>
+      </c>
+      <c r="J85">
+        <v>270</v>
+      </c>
+      <c r="K85" t="str">
+        <f t="shared" si="4"/>
+        <v>270|275|280|285|289|293|297|301|305|308|311|314|316|318|320|321|322|323|324|325|339|334|329|325|321|318|315|312|310|308|307|305|303|300|297|294|290|286|281|276|270|</v>
+      </c>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D86">
+        <f t="shared" si="5"/>
+        <v>74</v>
+      </c>
+      <c r="E86" t="str">
+        <f t="shared" si="6"/>
+        <v>74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|74|2</v>
+      </c>
+      <c r="K86">
+        <f>LEN(K85)</f>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <f>LEN(E86)</f>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="E91" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="str">
+        <f t="shared" ref="E93:E122" si="7">D93&amp;"|"&amp;E92</f>
+        <v>0|</v>
+      </c>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="str">
+        <f t="shared" si="7"/>
+        <v>0|0|</v>
+      </c>
+    </row>
+    <row r="95" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="str">
+        <f t="shared" si="7"/>
+        <v>0|0|0|</v>
+      </c>
+    </row>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="str">
+        <f t="shared" si="7"/>
+        <v>0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="97" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="str">
+        <f t="shared" si="7"/>
+        <v>0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="98" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="str">
+        <f t="shared" si="7"/>
+        <v>0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="str">
+        <f t="shared" si="7"/>
+        <v>0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C100">
+        <v>4</v>
+      </c>
+      <c r="D100">
+        <f>D99+C100</f>
+        <v>4</v>
+      </c>
+      <c r="E100" t="str">
+        <f t="shared" si="7"/>
+        <v>4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <f t="shared" ref="D101:D110" si="8">D100+C101</f>
+        <v>8</v>
+      </c>
+      <c r="E101" t="str">
+        <f t="shared" si="7"/>
+        <v>8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="E102" t="str">
+        <f t="shared" si="7"/>
+        <v>12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="E103" t="str">
+        <f t="shared" si="7"/>
+        <v>15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C104">
+        <v>3</v>
+      </c>
+      <c r="D104">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="E104" t="str">
+        <f t="shared" si="7"/>
+        <v>18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="105" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C105">
+        <v>2</v>
+      </c>
+      <c r="D105">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="E105" t="str">
+        <f t="shared" si="7"/>
+        <v>20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="106" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="E106" t="str">
+        <f t="shared" si="7"/>
+        <v>22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="107" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="E107" t="str">
+        <f t="shared" si="7"/>
+        <v>23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="108" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="D108">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E108" t="str">
+        <f t="shared" si="7"/>
+        <v>24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="109" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C109">
+        <v>0</v>
+      </c>
+      <c r="D109">
+        <f t="shared" si="8"/>
+        <v>24</v>
+      </c>
+      <c r="E109" t="str">
+        <f t="shared" si="7"/>
+        <v>24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="110" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D110">
+        <v>24</v>
+      </c>
+      <c r="E110" t="str">
+        <f t="shared" si="7"/>
+        <v>24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="111" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D111">
+        <v>24</v>
+      </c>
+      <c r="E111" t="str">
+        <f t="shared" si="7"/>
+        <v>24|24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="112" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="D112">
+        <v>23</v>
+      </c>
+      <c r="E112" t="str">
+        <f t="shared" si="7"/>
+        <v>23|24|24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D113">
+        <v>22</v>
+      </c>
+      <c r="E113" t="str">
+        <f t="shared" si="7"/>
+        <v>22|23|24|24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D114">
+        <v>20</v>
+      </c>
+      <c r="E114" t="str">
+        <f t="shared" si="7"/>
+        <v>20|22|23|24|24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D115">
+        <v>18</v>
+      </c>
+      <c r="E115" t="str">
+        <f t="shared" si="7"/>
+        <v>18|20|22|23|24|24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D116">
+        <v>15</v>
+      </c>
+      <c r="E116" t="str">
+        <f t="shared" si="7"/>
+        <v>15|18|20|22|23|24|24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D117">
+        <v>12</v>
+      </c>
+      <c r="E117" t="str">
+        <f t="shared" si="7"/>
+        <v>12|15|18|20|22|23|24|24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D118">
+        <v>8</v>
+      </c>
+      <c r="E118" t="str">
+        <f t="shared" si="7"/>
+        <v>8|12|15|18|20|22|23|24|24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119" t="str">
+        <f t="shared" si="7"/>
+        <v>4|8|12|15|18|20|22|23|24|24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="str">
+        <f t="shared" si="7"/>
+        <v>0|4|8|12|15|18|20|22|23|24|24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="str">
+        <f t="shared" si="7"/>
+        <v>0|0|4|8|12|15|18|20|22|23|24|24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="str">
+        <f t="shared" si="7"/>
+        <v>0|0|0|4|8|12|15|18|20|22|23|24|24|24|24|23|22|20|18|15|12|8|4|0|0|0|0|0|0|0|</v>
+      </c>
+    </row>
+    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <f>LEN(E122)</f>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D124">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D125">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D127">
+        <v>8863</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129">
+        <v>15167</v>
+      </c>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D131">
+        <v>21439</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>